--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed4/result_data_RandomForest.xlsx
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.547099999999993</v>
+        <v>-7.384999999999995</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.305400000000002</v>
+        <v>-8.374900000000002</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.886400000000005</v>
+        <v>-8.787300000000005</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.706599999999998</v>
+        <v>-8.589599999999997</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.2233</v>
+        <v>-7.234100000000004</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.691800000000002</v>
+        <v>-8.679700000000002</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.888000000000003</v>
+        <v>-8.785499999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.555100000000001</v>
+        <v>-7.317799999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.557500000000002</v>
+        <v>-7.661700000000005</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.675900000000002</v>
+        <v>-7.760900000000003</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.702200000000001</v>
+        <v>-7.5642</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.918099999999999</v>
+        <v>-8.9598</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.466599999999998</v>
+        <v>-8.461600000000004</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.283599999999994</v>
+        <v>-7.089299999999993</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.474400000000002</v>
+        <v>-7.4263</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.530300000000006</v>
+        <v>-7.590300000000004</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.286599999999995</v>
+        <v>-8.287699999999994</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.888100000000001</v>
+        <v>-9.1225</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.3102</v>
+        <v>-6.376599999999996</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.285600000000002</v>
+        <v>-8.082099999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
